--- a/Clase_10/Pronostico_ARIMA.xlsx
+++ b/Clase_10/Pronostico_ARIMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB63A7-B8CB-9D4A-8727-F07023F913D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60826F7-745B-9A4A-A747-6BD34E723822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,10 +47,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,9 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:A319"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308:A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,2476 +419,2571 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>36526</v>
       </c>
-      <c r="B2">
-        <v>1378244</v>
+      <c r="B2" s="3">
+        <v>1467815</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>36557</v>
       </c>
-      <c r="B3">
-        <v>1318075</v>
+      <c r="B3" s="3">
+        <v>1405033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>36586</v>
       </c>
-      <c r="B4">
-        <v>1476646</v>
+      <c r="B4" s="3">
+        <v>1608661</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>36617</v>
       </c>
-      <c r="B5">
-        <v>1426550</v>
+      <c r="B5" s="3">
+        <v>1523253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>36647</v>
       </c>
-      <c r="B6">
-        <v>1529293</v>
+      <c r="B6" s="3">
+        <v>1613390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>36678</v>
       </c>
-      <c r="B7">
-        <v>1427266</v>
+      <c r="B7" s="3">
+        <v>1536857</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>36708</v>
       </c>
-      <c r="B8">
-        <v>1664868</v>
+      <c r="B8" s="3">
+        <v>1773828</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>36739</v>
       </c>
-      <c r="B9">
-        <v>1621475</v>
+      <c r="B9" s="3">
+        <v>1744202</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>36770</v>
       </c>
-      <c r="B10">
-        <v>1337000</v>
+      <c r="B10" s="3">
+        <v>1431271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>36800</v>
       </c>
-      <c r="B11">
-        <v>1433870</v>
+      <c r="B11" s="3">
+        <v>1529001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>36831</v>
       </c>
-      <c r="B12">
-        <v>1478113</v>
+      <c r="B12" s="3">
+        <v>1588180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>36861</v>
       </c>
-      <c r="B13">
-        <v>1508385</v>
+      <c r="B13" s="3">
+        <v>1618021</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>36892</v>
       </c>
-      <c r="B14">
-        <v>1437232</v>
+      <c r="B14" s="3">
+        <v>1528593</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>36923</v>
       </c>
-      <c r="B15">
-        <v>1383251</v>
+      <c r="B15" s="3">
+        <v>1446422</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>36951</v>
       </c>
-      <c r="B16">
-        <v>1573884</v>
+      <c r="B16" s="3">
+        <v>1647364</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>36982</v>
       </c>
-      <c r="B17">
-        <v>1544627</v>
+      <c r="B17" s="3">
+        <v>1605110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>37012</v>
       </c>
-      <c r="B18">
-        <v>1539992</v>
+      <c r="B18" s="3">
+        <v>1596800</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>37043</v>
       </c>
-      <c r="B19">
-        <v>1487720</v>
+      <c r="B19" s="3">
+        <v>1518995</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>37073</v>
       </c>
-      <c r="B20">
-        <v>1810701</v>
+      <c r="B20" s="3">
+        <v>1869586</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>37104</v>
       </c>
-      <c r="B21">
-        <v>1751991</v>
+      <c r="B21" s="3">
+        <v>1802742</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>37135</v>
       </c>
-      <c r="B22">
-        <v>1303345</v>
+      <c r="B22" s="3">
+        <v>1340281</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>37165</v>
       </c>
-      <c r="B23">
-        <v>1331477</v>
+      <c r="B23" s="3">
+        <v>1370321</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>37196</v>
       </c>
-      <c r="B24">
-        <v>1342789</v>
+      <c r="B24" s="3">
+        <v>1394450</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>37226</v>
       </c>
-      <c r="B25">
-        <v>1445392</v>
+      <c r="B25" s="3">
+        <v>1493479</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>37257</v>
       </c>
-      <c r="B26">
-        <v>1341816</v>
+      <c r="B26" s="3">
+        <v>1401329</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>37288</v>
       </c>
-      <c r="B27">
-        <v>1246206</v>
+      <c r="B27" s="3">
+        <v>1291283</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>37316</v>
       </c>
-      <c r="B28">
-        <v>1497939</v>
+      <c r="B28" s="3">
+        <v>1554287</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>37347</v>
       </c>
-      <c r="B29">
-        <v>1446516</v>
+      <c r="B29" s="3">
+        <v>1500088</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>37377</v>
       </c>
-      <c r="B30">
-        <v>1474570</v>
+      <c r="B30" s="3">
+        <v>1515151</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>37408</v>
       </c>
-      <c r="B31">
-        <v>1416220</v>
+      <c r="B31" s="3">
+        <v>1459882</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>37438</v>
       </c>
-      <c r="B32">
-        <v>1774535</v>
+      <c r="B32" s="3">
+        <v>1814025</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>37469</v>
       </c>
-      <c r="B33">
-        <v>1730203</v>
+      <c r="B33" s="3">
+        <v>1773479</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>37500</v>
       </c>
-      <c r="B34">
-        <v>1337002</v>
+      <c r="B34" s="3">
+        <v>1371928</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>37530</v>
       </c>
-      <c r="B35">
-        <v>1398070</v>
+      <c r="B35" s="3">
+        <v>1434767</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>37561</v>
       </c>
-      <c r="B36">
-        <v>1424842</v>
+      <c r="B36" s="3">
+        <v>1463324</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>37591</v>
       </c>
-      <c r="B37">
-        <v>1570039</v>
+      <c r="B37" s="3">
+        <v>1618044</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37622</v>
       </c>
-      <c r="B38">
-        <v>1424838</v>
+      <c r="B38" s="3">
+        <v>1488039</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37653</v>
       </c>
-      <c r="B39">
-        <v>1337700</v>
+      <c r="B39" s="3">
+        <v>1381312</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>37681</v>
       </c>
-      <c r="B40">
-        <v>1544731</v>
+      <c r="B40" s="3">
+        <v>1596860</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>37712</v>
       </c>
-      <c r="B41">
-        <v>1540790</v>
+      <c r="B41" s="3">
+        <v>1582755</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>37742</v>
       </c>
-      <c r="B42">
-        <v>1616917</v>
+      <c r="B42" s="3">
+        <v>1655177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>37773</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>1632585</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>37803</v>
       </c>
-      <c r="B44">
-        <v>1861207</v>
+      <c r="B44" s="3">
+        <v>1909999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>37834</v>
       </c>
-      <c r="B45">
-        <v>1770401</v>
+      <c r="B45" s="3">
+        <v>1850553</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>37865</v>
       </c>
-      <c r="B46">
-        <v>1391615</v>
+      <c r="B46" s="3">
+        <v>1432363</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>37895</v>
       </c>
-      <c r="B47">
-        <v>1515666</v>
+      <c r="B47" s="3">
+        <v>1552449</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>37926</v>
       </c>
-      <c r="B48">
-        <v>1591542</v>
+      <c r="B48" s="3">
+        <v>1637220</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>37956</v>
       </c>
-      <c r="B49">
-        <v>1676338</v>
+      <c r="B49" s="3">
+        <v>1730743</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>37987</v>
       </c>
-      <c r="B50">
-        <v>1477127</v>
+      <c r="B50" s="3">
+        <v>1531508</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>38018</v>
       </c>
-      <c r="B51">
-        <v>1438139</v>
+      <c r="B51" s="3">
+        <v>1492488</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>38047</v>
       </c>
-      <c r="B52">
-        <v>1615595</v>
+      <c r="B52" s="3">
+        <v>1676646</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>38078</v>
       </c>
-      <c r="B53">
-        <v>1678891</v>
+      <c r="B53" s="3">
+        <v>1730050</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>38108</v>
       </c>
-      <c r="B54">
-        <v>1701820</v>
+      <c r="B54" s="3">
+        <v>1751594</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>38139</v>
       </c>
-      <c r="B55">
-        <v>1616342</v>
+      <c r="B55" s="3">
+        <v>1675462</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>38169</v>
       </c>
-      <c r="B56">
-        <v>2008424</v>
+      <c r="B56" s="3">
+        <v>2079036</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>38200</v>
       </c>
-      <c r="B57">
-        <v>1833446</v>
+      <c r="B57" s="3">
+        <v>1908598</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>38231</v>
       </c>
-      <c r="B58">
-        <v>1443091</v>
+      <c r="B58" s="3">
+        <v>1505689</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>38261</v>
       </c>
-      <c r="B59">
-        <v>1606751</v>
+      <c r="B59" s="3">
+        <v>1682514</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>38292</v>
       </c>
-      <c r="B60">
-        <v>1606478</v>
+      <c r="B60" s="3">
+        <v>1691070</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>38322</v>
       </c>
-      <c r="B61">
-        <v>1667369</v>
+      <c r="B61" s="3">
+        <v>1750503</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>38353</v>
       </c>
-      <c r="B62">
-        <v>1503335</v>
+      <c r="B62" s="3">
+        <v>1590431</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>38384</v>
       </c>
-      <c r="B63">
-        <v>1456263</v>
+      <c r="B63" s="3">
+        <v>1529524</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>38412</v>
       </c>
-      <c r="B64">
-        <v>1686406</v>
+      <c r="B64" s="3">
+        <v>1779521</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>38443</v>
       </c>
-      <c r="B65">
-        <v>1601818</v>
+      <c r="B65" s="3">
+        <v>1682566</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>38473</v>
       </c>
-      <c r="B66">
-        <v>1729490</v>
+      <c r="B66" s="3">
+        <v>1807387</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>38504</v>
       </c>
-      <c r="B67">
-        <v>1687458</v>
+      <c r="B67" s="3">
+        <v>1770138</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>38534</v>
       </c>
-      <c r="B68">
-        <v>1937363</v>
+      <c r="B68" s="3">
+        <v>2034433</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>38565</v>
       </c>
-      <c r="B69">
-        <v>1840670</v>
+      <c r="B69" s="3">
+        <v>1937303</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>38596</v>
       </c>
-      <c r="B70">
-        <v>1543979</v>
+      <c r="B70" s="3">
+        <v>1609982</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>38626</v>
       </c>
-      <c r="B71">
-        <v>1622968</v>
+      <c r="B71" s="3">
+        <v>1692126</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>38657</v>
       </c>
-      <c r="B72">
-        <f>ROUND(AVERAGE(B71,B73),0)</f>
-        <v>1694174</v>
+      <c r="B72" s="3">
+        <v>1770345.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>38687</v>
       </c>
-      <c r="B73">
-        <v>1765379</v>
+      <c r="B73" s="3">
+        <v>1848565</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>38718</v>
       </c>
-      <c r="B74">
-        <v>1609722</v>
+      <c r="B74" s="3">
+        <v>1699392</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>38749</v>
       </c>
-      <c r="B75">
-        <v>1558891</v>
+      <c r="B75" s="3">
+        <v>1634196</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>38777</v>
       </c>
-      <c r="B76">
-        <v>1906469</v>
+      <c r="B76" s="3">
+        <v>2000878</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>38808</v>
       </c>
-      <c r="B77">
-        <v>1828850</v>
+      <c r="B77" s="3">
+        <v>1914655</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>38838</v>
       </c>
-      <c r="B78">
-        <v>1851029</v>
+      <c r="B78" s="3">
+        <v>1937092</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>38869</v>
       </c>
-      <c r="B79">
-        <v>1781250</v>
+      <c r="B79" s="3">
+        <v>1868046</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>38899</v>
       </c>
-      <c r="B80">
-        <v>2125803</v>
+      <c r="B80" s="3">
+        <v>2214516</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>38930</v>
       </c>
-      <c r="B81">
-        <v>2033979</v>
+      <c r="B81" s="3">
+        <v>2123192</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>38961</v>
       </c>
-      <c r="B82">
-        <v>1739969</v>
+      <c r="B82" s="3">
+        <v>1805434</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>38991</v>
       </c>
-      <c r="B83">
-        <v>1941138</v>
+      <c r="B83" s="3">
+        <v>2014966</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>39022</v>
       </c>
-      <c r="B84">
-        <v>1885746</v>
+      <c r="B84" s="3">
+        <v>1972900</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>39052</v>
       </c>
-      <c r="B85">
-        <v>2000381</v>
+      <c r="B85" s="3">
+        <v>2087840</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>39083</v>
       </c>
-      <c r="B86">
-        <v>1898928</v>
+      <c r="B86" s="3">
+        <v>1996324</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>39114</v>
       </c>
-      <c r="B87">
-        <v>1794580</v>
+      <c r="B87" s="3">
+        <v>1869030</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>39142</v>
       </c>
-      <c r="B88">
-        <v>2267232</v>
+      <c r="B88" s="3">
+        <v>2369881</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>39173</v>
       </c>
-      <c r="B89">
-        <v>2243192</v>
+      <c r="B89" s="3">
+        <v>2348391</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>39203</v>
       </c>
-      <c r="B90">
-        <v>2345765</v>
+      <c r="B90" s="3">
+        <v>2444425</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>39234</v>
       </c>
-      <c r="B91">
-        <v>2265605</v>
+      <c r="B91" s="3">
+        <v>2355243</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>39264</v>
       </c>
-      <c r="B92">
-        <v>2744890</v>
+      <c r="B92" s="3">
+        <v>2854370</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>39295</v>
       </c>
-      <c r="B93">
-        <v>2527728</v>
+      <c r="B93" s="3">
+        <v>2634835</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>39326</v>
       </c>
-      <c r="B94">
-        <v>2079634</v>
+      <c r="B94" s="3">
+        <v>2158479</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>39356</v>
       </c>
-      <c r="B95">
-        <v>2301522</v>
+      <c r="B95" s="3">
+        <v>2372425</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>39387</v>
       </c>
-      <c r="B96">
-        <v>2330366</v>
+      <c r="B96" s="3">
+        <v>2412125</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>39417</v>
       </c>
-      <c r="B97">
-        <v>2464235</v>
+      <c r="B97" s="3">
+        <v>2538960</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>39448</v>
       </c>
-      <c r="B98">
-        <v>2106063</v>
+      <c r="B98" s="3">
+        <v>2363391</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>39479</v>
       </c>
-      <c r="B99">
-        <v>2150216</v>
+      <c r="B99" s="3">
+        <v>2230286</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>39508</v>
       </c>
-      <c r="B100">
-        <v>2486540</v>
+      <c r="B100" s="3">
+        <v>2603173</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>39539</v>
       </c>
-      <c r="B101">
-        <v>2297889</v>
+      <c r="B101" s="3">
+        <v>2386780</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>39569</v>
       </c>
-      <c r="B102">
-        <v>2432088</v>
+      <c r="B102" s="3">
+        <v>2530674</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>39600</v>
       </c>
-      <c r="B103">
-        <v>2314607</v>
+      <c r="B103" s="3">
+        <v>2418594</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>39630</v>
       </c>
-      <c r="B104">
-        <v>2627441</v>
+      <c r="B104" s="3">
+        <v>2738484</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>39661</v>
       </c>
-      <c r="B105">
-        <v>2361145</v>
+      <c r="B105" s="3">
+        <v>2481617</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>39692</v>
       </c>
-      <c r="B106">
-        <v>1976692</v>
+      <c r="B106" s="3">
+        <v>2048549</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>39722</v>
       </c>
-      <c r="B107">
-        <v>2139399</v>
+      <c r="B107" s="3">
+        <v>2213348</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>39753</v>
       </c>
-      <c r="B108">
-        <v>2159953</v>
+      <c r="B108" s="3">
+        <v>2243816</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>39783</v>
       </c>
-      <c r="B109">
-        <v>2240326</v>
+      <c r="B109" s="3">
+        <v>2318475</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>39814</v>
       </c>
-      <c r="B110">
-        <v>2038842</v>
+      <c r="B110" s="3">
+        <v>2131787</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>39845</v>
       </c>
-      <c r="B111">
-        <v>1920924</v>
+      <c r="B111" s="3">
+        <v>1990094</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>39873</v>
       </c>
-      <c r="B112">
-        <v>2112724</v>
+      <c r="B112" s="3">
+        <v>2200427</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>39904</v>
       </c>
-      <c r="B113">
-        <v>2043410</v>
+      <c r="B113" s="3">
+        <v>2122739</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>39934</v>
       </c>
-      <c r="B114">
-        <v>1578116</v>
+      <c r="B114" s="3">
+        <v>1617192</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>39965</v>
       </c>
-      <c r="B115">
-        <v>1954407</v>
+      <c r="B115" s="3">
+        <v>2011162</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>39995</v>
       </c>
-      <c r="B116">
-        <v>2325389</v>
+      <c r="B116" s="3">
+        <v>2405413</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>40026</v>
       </c>
-      <c r="B117">
-        <v>2180675</v>
+      <c r="B117" s="3">
+        <v>2275805</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>40057</v>
       </c>
-      <c r="B118">
-        <v>1720983</v>
+      <c r="B118" s="3">
+        <v>1781153</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>40087</v>
       </c>
-      <c r="B119">
-        <v>1915322</v>
+      <c r="B119" s="3">
+        <v>1984029</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>40118</v>
       </c>
-      <c r="B120">
-        <v>1942512</v>
+      <c r="B120" s="3">
+        <v>2020442</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>40148</v>
       </c>
-      <c r="B121">
-        <v>2062841</v>
+      <c r="B121" s="3">
+        <v>2128237</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>40179</v>
       </c>
-      <c r="B122">
-        <v>1807837</v>
+      <c r="B122" s="3">
+        <v>1890976</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>40210</v>
       </c>
-      <c r="B123">
-        <v>1634530</v>
+      <c r="B123" s="3">
+        <v>1704899</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>40238</v>
       </c>
-      <c r="B124">
-        <v>2031839</v>
+      <c r="B124" s="3">
+        <v>2117103</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>40269</v>
       </c>
-      <c r="B125">
-        <v>1941371</v>
+      <c r="B125" s="3">
+        <v>2028473</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>40299</v>
       </c>
-      <c r="B126">
-        <v>2085260</v>
+      <c r="B126" s="3">
+        <v>2163802</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>40330</v>
       </c>
-      <c r="B127">
-        <v>2002459</v>
+      <c r="B127" s="3">
+        <v>2086806</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>40360</v>
       </c>
-      <c r="B128">
-        <v>2431404</v>
+      <c r="B128" s="3">
+        <v>2520263</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>40391</v>
       </c>
-      <c r="B129">
-        <v>2238789</v>
+      <c r="B129" s="3">
+        <v>2327214</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>40422</v>
       </c>
-      <c r="B130">
-        <v>1702230</v>
+      <c r="B130" s="3">
+        <v>1736563</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>40452</v>
       </c>
-      <c r="B131">
-        <v>1921343</v>
+      <c r="B131" s="3">
+        <v>1964019</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>40483</v>
       </c>
-      <c r="B132">
-        <v>1915633</v>
+      <c r="B132" s="3">
+        <v>1962848</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>40513</v>
       </c>
-      <c r="B133">
-        <v>2038083</v>
+      <c r="B133" s="3">
+        <v>2078213</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>40544</v>
       </c>
-      <c r="B134">
-        <v>1793353</v>
+      <c r="B134" s="3">
+        <v>1852220</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>40575</v>
       </c>
-      <c r="B135">
-        <v>1660502</v>
+      <c r="B135" s="3">
+        <v>1701559</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>40603</v>
       </c>
-      <c r="B136">
-        <v>1963903</v>
+      <c r="B136" s="3">
+        <v>2012348</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>40634</v>
       </c>
-      <c r="B137">
-        <v>2004464</v>
+      <c r="B137" s="3">
+        <v>2043892</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>40664</v>
       </c>
-      <c r="B138">
-        <v>2128558</v>
+      <c r="B138" s="3">
+        <v>2174861</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>40695</v>
       </c>
-      <c r="B139">
-        <v>2024039</v>
+      <c r="B139" s="3">
+        <v>2065365</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>40725</v>
       </c>
-      <c r="B140">
-        <v>2429636</v>
+      <c r="B140" s="3">
+        <v>2483655</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>40756</v>
       </c>
-      <c r="B141">
-        <v>2231973</v>
+      <c r="B141" s="3">
+        <v>2298848</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>40787</v>
       </c>
-      <c r="B142">
-        <v>1955808</v>
+      <c r="B142" s="3">
+        <v>2001097</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>40817</v>
       </c>
-      <c r="B143">
-        <v>2120908</v>
+      <c r="B143" s="3">
+        <v>2175168</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>40848</v>
       </c>
-      <c r="B144">
-        <v>2150489</v>
+      <c r="B144" s="3">
+        <v>2206164</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>40878</v>
       </c>
-      <c r="B145">
-        <v>2322054</v>
+      <c r="B145" s="3">
+        <v>2370877</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>40909</v>
       </c>
-      <c r="B146">
-        <v>2033972</v>
+      <c r="B146" s="3">
+        <v>2095748</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>40940</v>
       </c>
-      <c r="B147">
-        <v>1894866</v>
+      <c r="B147" s="3">
+        <v>1949039</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>40969</v>
       </c>
-      <c r="B148">
-        <v>2195861</v>
+      <c r="B148" s="3">
+        <v>2252697</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>41000</v>
       </c>
-      <c r="B149">
-        <v>2155597</v>
+      <c r="B149" s="3">
+        <v>2216278</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>41030</v>
       </c>
-      <c r="B150">
-        <v>2224797</v>
+      <c r="B150" s="3">
+        <v>2285980</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>41061</v>
       </c>
-      <c r="B151">
-        <v>2266473</v>
+      <c r="B151" s="3">
+        <v>2321357</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>41091</v>
       </c>
-      <c r="B152">
-        <v>2717175</v>
+      <c r="B152" s="3">
+        <v>2776749</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>41122</v>
       </c>
-      <c r="B153">
-        <v>2489299</v>
+      <c r="B153" s="3">
+        <v>2557388</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>41153</v>
       </c>
-      <c r="B154">
-        <v>2118777</v>
+      <c r="B154" s="3">
+        <v>2177960</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>41183</v>
       </c>
-      <c r="B155">
-        <v>2283484</v>
+      <c r="B155" s="3">
+        <v>2332671</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>41214</v>
       </c>
-      <c r="B156">
-        <v>2311381</v>
+      <c r="B156" s="3">
+        <v>2370580</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>41244</v>
       </c>
-      <c r="B157">
-        <v>2479803</v>
+      <c r="B157" s="3">
+        <v>2532883</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>41275</v>
       </c>
-      <c r="B158">
-        <v>2202815</v>
+      <c r="B158" s="3">
+        <v>2269711</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>41306</v>
       </c>
-      <c r="B159">
-        <v>1940454</v>
+      <c r="B159" s="3">
+        <v>1997941</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>41334</v>
       </c>
-      <c r="B160">
-        <v>2333514</v>
+      <c r="B160" s="3">
+        <v>2392291</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>41365</v>
       </c>
-      <c r="B161">
-        <v>2294655</v>
+      <c r="B161" s="3">
+        <v>2356402</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>41395</v>
       </c>
-      <c r="B162">
-        <v>2411945</v>
+      <c r="B162" s="3">
+        <v>2476005</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>41426</v>
       </c>
-      <c r="B163">
-        <v>2429671</v>
+      <c r="B163" s="3">
+        <v>2503438</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>41456</v>
       </c>
-      <c r="B164">
-        <v>3020521</v>
+      <c r="B164" s="3">
+        <v>3095722</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>41487</v>
       </c>
-      <c r="B165">
-        <v>2764768</v>
+      <c r="B165" s="3">
+        <v>2839918</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>41518</v>
       </c>
-      <c r="B166">
-        <v>2321033</v>
+      <c r="B166" s="3">
+        <v>2372273</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>41548</v>
       </c>
-      <c r="B167">
-        <v>2471649</v>
+      <c r="B167" s="3">
+        <v>2530532</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>41579</v>
       </c>
-      <c r="B168">
-        <v>2541679</v>
+      <c r="B168" s="3">
+        <v>2610185</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>41609</v>
       </c>
-      <c r="B169">
-        <v>2743115</v>
+      <c r="B169" s="3">
+        <v>2805390</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>41640</v>
       </c>
-      <c r="B170">
-        <v>2457772</v>
+      <c r="B170" s="3">
+        <v>2535226</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>41671</v>
       </c>
-      <c r="B171">
-        <v>2115766</v>
+      <c r="B171" s="3">
+        <v>2179498</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>41699</v>
       </c>
-      <c r="B172">
-        <v>2440786</v>
+      <c r="B172" s="3">
+        <v>2517932</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>41730</v>
       </c>
-      <c r="B173">
-        <v>2586883</v>
+      <c r="B173" s="3">
+        <v>2649883</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>41760</v>
       </c>
-      <c r="B174">
-        <v>2698027</v>
+      <c r="B174" s="3">
+        <v>2772425</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>41791</v>
       </c>
-      <c r="B175">
-        <v>2593783</v>
+      <c r="B175" s="3">
+        <v>2666350</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>41821</v>
       </c>
-      <c r="B176">
-        <v>3137210</v>
+      <c r="B176" s="3">
+        <v>3223306</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>41852</v>
       </c>
-      <c r="B177">
-        <v>2952702</v>
+      <c r="B177" s="3">
+        <v>3046508</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>41883</v>
       </c>
-      <c r="B178">
-        <v>2444759</v>
+      <c r="B178" s="3">
+        <v>2509350</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>41913</v>
       </c>
-      <c r="B179">
-        <v>2717696</v>
+      <c r="B179" s="3">
+        <v>2788989</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>41944</v>
       </c>
-      <c r="B180">
-        <v>2774035</v>
+      <c r="B180" s="3">
+        <v>2851184</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>41974</v>
       </c>
-      <c r="B181">
-        <v>2947905</v>
+      <c r="B181" s="3">
+        <v>3025707</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>42005</v>
       </c>
-      <c r="B182">
-        <v>2610829</v>
+      <c r="B182" s="3">
+        <v>2698074</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>42036</v>
       </c>
-      <c r="B183">
-        <v>2356291</v>
+      <c r="B183" s="3">
+        <v>2427248</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>42064</v>
       </c>
-      <c r="B184">
-        <v>2859406</v>
+      <c r="B184" s="3">
+        <v>2945464</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>42095</v>
       </c>
-      <c r="B185">
-        <v>2919610</v>
+      <c r="B185" s="3">
+        <v>2994876</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>42125</v>
       </c>
-      <c r="B186">
-        <v>3013076</v>
+      <c r="B186" s="3">
+        <v>3104233</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>42156</v>
       </c>
-      <c r="B187">
-        <v>2971067</v>
+      <c r="B187" s="3">
+        <v>3055448</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>42186</v>
       </c>
-      <c r="B188">
-        <v>3578906</v>
+      <c r="B188" s="3">
+        <v>3665449</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>42217</v>
       </c>
-      <c r="B189">
-        <v>3366196</v>
+      <c r="B189" s="3">
+        <v>3461197</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>42248</v>
       </c>
-      <c r="B190">
-        <v>2813268</v>
+      <c r="B190" s="3">
+        <v>2884959</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>42278</v>
       </c>
-      <c r="B191">
-        <v>3075923</v>
+      <c r="B191" s="3">
+        <v>3147343</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>42309</v>
       </c>
-      <c r="B192">
-        <v>3155055</v>
+      <c r="B192" s="3">
+        <v>3226202</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>42339</v>
       </c>
-      <c r="B193">
-        <v>3347227</v>
+      <c r="B193" s="3">
+        <v>3405915</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>42370</v>
       </c>
-      <c r="B194">
-        <v>2971777</v>
+      <c r="B194" s="3">
+        <v>3047571</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>42401</v>
       </c>
-      <c r="B195">
-        <v>2705818</v>
+      <c r="B195" s="3">
+        <v>2768785</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>42430</v>
       </c>
-      <c r="B196">
-        <v>3283276</v>
+      <c r="B196" s="3">
+        <v>3357262</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>42461</v>
       </c>
-      <c r="B197">
-        <v>3126641</v>
+      <c r="B197" s="3">
+        <v>3204267</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>42491</v>
       </c>
-      <c r="B198">
-        <v>3372090</v>
+      <c r="B198" s="3">
+        <v>3450491</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>42522</v>
       </c>
-      <c r="B199">
-        <v>3376332</v>
+      <c r="B199" s="3">
+        <v>3458058</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>42552</v>
       </c>
-      <c r="B200">
-        <v>4040857</v>
+      <c r="B200" s="3">
+        <v>4132199</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>42583</v>
       </c>
-      <c r="B201">
-        <v>3775768</v>
+      <c r="B201" s="3">
+        <v>3880466</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>42614</v>
       </c>
-      <c r="B202">
-        <v>3262067</v>
+      <c r="B202" s="3">
+        <v>3335960</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>42644</v>
       </c>
-      <c r="B203">
-        <v>3482983</v>
+      <c r="B203" s="3">
+        <v>3567510</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>42675</v>
       </c>
-      <c r="B204">
-        <v>3577995</v>
+      <c r="B204" s="3">
+        <v>3655289</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>42705</v>
       </c>
-      <c r="B205">
-        <v>3861957</v>
+      <c r="B205" s="3">
+        <v>3944306</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>42736</v>
       </c>
-      <c r="B206">
-        <v>3477241</v>
+      <c r="B206" s="3">
+        <v>3565569</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>42767</v>
       </c>
-      <c r="B207">
-        <v>3027561</v>
+      <c r="B207" s="3">
+        <v>3104550</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>42795</v>
       </c>
-      <c r="B208">
-        <v>3505412</v>
+      <c r="B208" s="3">
+        <v>3587766</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>42826</v>
       </c>
-      <c r="B209">
-        <v>3650489</v>
+      <c r="B209" s="3">
+        <v>3746574</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>42856</v>
       </c>
-      <c r="B210">
-        <v>3735603</v>
+      <c r="B210" s="3">
+        <v>3820221</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>42887</v>
       </c>
-      <c r="B211">
-        <v>3753955</v>
+      <c r="B211" s="3">
+        <v>3847207</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>42917</v>
       </c>
-      <c r="B212">
-        <v>4264135</v>
+      <c r="B212" s="3">
+        <v>4371450</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>42948</v>
       </c>
-      <c r="B213">
-        <v>4023689</v>
+      <c r="B213" s="3">
+        <v>4128071</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>42979</v>
       </c>
-      <c r="B214">
-        <v>3325242</v>
+      <c r="B214" s="3">
+        <v>3410664</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+      <c r="A215" s="2">
         <v>43009</v>
       </c>
-      <c r="B215">
-        <v>3743992</v>
+      <c r="B215" s="3">
+        <v>3817161</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+      <c r="A216" s="2">
         <v>43040</v>
       </c>
-      <c r="B216">
-        <v>3791656</v>
+      <c r="B216" s="3">
+        <v>3877626</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+      <c r="A217" s="2">
         <v>43070</v>
       </c>
-      <c r="B217">
-        <v>3944910</v>
+      <c r="B217" s="3">
+        <v>4022051</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="A218" s="2">
         <v>43101</v>
       </c>
-      <c r="B218">
-        <v>3691125</v>
+      <c r="B218" s="3">
+        <v>3787034</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+      <c r="A219" s="2">
         <v>43132</v>
       </c>
-      <c r="B219">
-        <v>3338318</v>
+      <c r="B219" s="3">
+        <v>3423360</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="A220" s="2">
         <v>43160</v>
       </c>
-      <c r="B220">
-        <v>3971106</v>
+      <c r="B220" s="3">
+        <v>4073151</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="A221" s="2">
         <v>43191</v>
       </c>
-      <c r="B221">
-        <v>4004449</v>
+      <c r="B221" s="3">
+        <v>4111024</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+      <c r="A222" s="2">
         <v>43221</v>
       </c>
-      <c r="B222">
-        <v>4057343</v>
+      <c r="B222" s="3">
+        <v>4161401</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+      <c r="A223" s="2">
         <v>43252</v>
       </c>
-      <c r="B223">
-        <v>4003841</v>
+      <c r="B223" s="3">
+        <v>4101778</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+      <c r="A224" s="2">
         <v>43282</v>
       </c>
-      <c r="B224">
-        <v>4625916</v>
+      <c r="B224" s="3">
+        <v>4734368</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+      <c r="A225" s="2">
         <v>43313</v>
       </c>
-      <c r="B225">
-        <v>4332706</v>
+      <c r="B225" s="3">
+        <v>4443878</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+      <c r="A226" s="2">
         <v>43344</v>
       </c>
-      <c r="B226">
-        <v>3815371</v>
+      <c r="B226" s="3">
+        <v>3906701</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+      <c r="A227" s="2">
         <v>43374</v>
       </c>
-      <c r="B227">
-        <v>4158418</v>
+      <c r="B227" s="3">
+        <v>4248031</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+      <c r="A228" s="2">
         <v>43405</v>
       </c>
-      <c r="B228">
-        <v>4192217</v>
+      <c r="B228" s="3">
+        <v>4290201</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+      <c r="A229" s="2">
         <v>43435</v>
       </c>
-      <c r="B229">
-        <v>4333239</v>
+      <c r="B229" s="3">
+        <v>4429077</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+      <c r="A230" s="2">
         <v>43466</v>
       </c>
-      <c r="B230">
-        <v>3899722</v>
+      <c r="B230" s="3">
+        <v>4008757</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+      <c r="A231" s="2">
         <v>43497</v>
       </c>
-      <c r="B231">
-        <v>3501988</v>
+      <c r="B231" s="3">
+        <v>3596520</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+      <c r="A232" s="2">
         <v>43525</v>
       </c>
-      <c r="B232">
-        <v>4194556</v>
+      <c r="B232" s="3">
+        <v>4300729</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+      <c r="A233" s="2">
         <v>43556</v>
       </c>
-      <c r="B233">
-        <v>4358160</v>
+      <c r="B233" s="3">
+        <v>4461696</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+      <c r="A234" s="2">
         <v>43586</v>
       </c>
-      <c r="B234">
-        <v>4608860</v>
+      <c r="B234" s="3">
+        <v>4710496</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+      <c r="A235" s="2">
         <v>43617</v>
       </c>
-      <c r="B235">
-        <v>4460465</v>
+      <c r="B235" s="3">
+        <v>4571231</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="A236" s="2">
         <v>43647</v>
       </c>
-      <c r="B236">
-        <v>4912053</v>
+      <c r="B236" s="3">
+        <v>5032301</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+      <c r="A237" s="2">
         <v>43678</v>
       </c>
-      <c r="B237">
-        <v>4666735</v>
+      <c r="B237" s="3">
+        <v>4792272</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+      <c r="A238" s="2">
         <v>43709</v>
       </c>
-      <c r="B238">
-        <v>4095482</v>
+      <c r="B238" s="3">
+        <v>4182034</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+      <c r="A239" s="2">
         <v>43739</v>
       </c>
-      <c r="B239">
-        <v>4524142</v>
+      <c r="B239" s="3">
+        <v>4604610</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+      <c r="A240" s="2">
         <v>43770</v>
       </c>
-      <c r="B240">
-        <v>4481265</v>
+      <c r="B240" s="3">
+        <v>4575885</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="A241" s="2">
         <v>43800</v>
       </c>
-      <c r="B241">
-        <v>4668057</v>
+      <c r="B241" s="3">
+        <v>4767879</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+      <c r="A242" s="2">
         <v>43831</v>
       </c>
-      <c r="B242">
-        <v>4323235</v>
+      <c r="B242" s="3">
+        <v>4426662</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+      <c r="A243" s="2">
         <v>43862</v>
       </c>
-      <c r="B243">
-        <v>3996874</v>
+      <c r="B243" s="3">
+        <v>4097869</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+      <c r="A244" s="2">
         <v>43891</v>
       </c>
-      <c r="B244">
-        <v>3008295</v>
+      <c r="B244" s="3">
+        <v>3082439</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+      <c r="A245" s="2">
         <v>43922</v>
       </c>
-      <c r="B245">
-        <v>406742</v>
+      <c r="B245" s="3">
+        <v>411282</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+      <c r="A246" s="2">
         <v>43952</v>
       </c>
-      <c r="B246">
-        <v>384643</v>
+      <c r="B246" s="3">
+        <v>386054</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+      <c r="A247" s="2">
         <v>43983</v>
       </c>
-      <c r="B247">
-        <v>890203</v>
+      <c r="B247" s="3">
+        <v>897458</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+      <c r="A248" s="2">
         <v>44013</v>
       </c>
-      <c r="B248">
-        <v>1678137</v>
+      <c r="B248" s="3">
+        <v>1694668</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+      <c r="A249" s="2">
         <v>44044</v>
       </c>
-      <c r="B249">
-        <v>2126572</v>
+      <c r="B249" s="3">
+        <v>2154088</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+      <c r="A250" s="2">
         <v>44075</v>
       </c>
-      <c r="B250">
-        <v>2328193</v>
+      <c r="B250" s="3">
+        <v>2354169</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+      <c r="A251" s="2">
         <v>44105</v>
       </c>
-      <c r="B251">
-        <v>2724198</v>
+      <c r="B251" s="3">
+        <v>2755603</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+      <c r="A252" s="2">
         <v>44136</v>
       </c>
-      <c r="B252">
-        <v>2935138</v>
+      <c r="B252" s="3">
+        <v>2960319</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+      <c r="A253" s="2">
         <v>44166</v>
       </c>
-      <c r="B253">
-        <v>3152153</v>
+      <c r="B253" s="3">
+        <v>3190246</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+      <c r="A254" s="2">
         <v>44197</v>
       </c>
-      <c r="B254">
-        <v>2685767</v>
+      <c r="B254" s="3">
+        <v>2747947</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+      <c r="A255" s="2">
         <v>44228</v>
       </c>
-      <c r="B255">
-        <v>2214034</v>
+      <c r="B255" s="3">
+        <v>2250155</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+      <c r="A256" s="2">
         <v>44256</v>
       </c>
-      <c r="B256">
-        <v>3162379</v>
+      <c r="B256" s="3">
+        <v>3215499</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+      <c r="A257" s="2">
         <v>44287</v>
       </c>
-      <c r="B257">
-        <v>3452944</v>
+      <c r="B257" s="3">
+        <v>3523462</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+      <c r="A258" s="2">
         <v>44317</v>
       </c>
-      <c r="B258">
-        <v>3784266</v>
+      <c r="B258" s="3">
+        <v>3868612</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+      <c r="A259" s="2">
         <v>44348</v>
       </c>
-      <c r="B259">
-        <v>3791459</v>
+      <c r="B259" s="3">
+        <v>3885189</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+      <c r="A260" s="2">
         <v>44378</v>
       </c>
-      <c r="B260">
-        <v>4352913</v>
+      <c r="B260" s="3">
+        <v>4446637</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+      <c r="A261" s="2">
         <v>44409</v>
       </c>
-      <c r="B261">
-        <v>3961404</v>
+      <c r="B261" s="3">
+        <v>4061957</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+      <c r="A262" s="2">
         <v>44440</v>
       </c>
-      <c r="B262">
-        <v>3577845</v>
+      <c r="B262" s="3">
+        <v>3653971</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+      <c r="A263" s="2">
         <v>44470</v>
       </c>
-      <c r="B263">
-        <v>4118307</v>
+      <c r="B263" s="3">
+        <v>4204904</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+      <c r="A264" s="2">
         <v>44501</v>
       </c>
-      <c r="B264">
-        <v>4313721</v>
+      <c r="B264" s="3">
+        <v>4395259</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="A265" s="2">
         <v>44531</v>
       </c>
-      <c r="B265">
-        <v>4681213</v>
+      <c r="B265" s="3">
+        <v>4768202</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="A266" s="2">
         <v>44562</v>
       </c>
-      <c r="B266">
-        <v>3767905</v>
+      <c r="B266" s="3">
+        <v>3854676</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+      <c r="A267" s="2">
         <v>44593</v>
       </c>
-      <c r="B267">
-        <v>3535885</v>
+      <c r="B267" s="3">
+        <v>3612447</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+      <c r="A268" s="2">
         <v>44621</v>
       </c>
-      <c r="B268">
-        <v>4438186</v>
+      <c r="B268" s="3">
+        <v>4549465</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="A269" s="2">
         <v>44652</v>
       </c>
-      <c r="B269">
-        <v>4701734</v>
+      <c r="B269" s="3">
+        <v>4778420</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="A270" s="2">
         <v>44682</v>
       </c>
-      <c r="B270">
-        <v>4424819</v>
+      <c r="B270" s="3">
+        <v>4908699</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+      <c r="A271" s="2">
         <v>44713</v>
       </c>
-      <c r="B271">
-        <v>4224210</v>
+      <c r="B271" s="3">
+        <v>4701641</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+      <c r="A272" s="2">
         <v>44743</v>
       </c>
-      <c r="B272">
-        <v>5262601</v>
+      <c r="B272" s="3">
+        <v>5372852</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+      <c r="A273" s="2">
         <v>44774</v>
       </c>
-      <c r="B273">
-        <v>5148560</v>
+      <c r="B273" s="3">
+        <v>5261481</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="A274" s="2">
         <v>44805</v>
       </c>
-      <c r="B274">
-        <v>4618052</v>
+      <c r="B274" s="3">
+        <v>4704494</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="A275" s="2">
         <v>44835</v>
       </c>
-      <c r="B275">
-        <v>5062571</v>
+      <c r="B275" s="3">
+        <v>5162631</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+      <c r="A276" s="2">
         <v>44866</v>
       </c>
-      <c r="B276">
-        <v>5085319</v>
+      <c r="B276" s="3">
+        <v>5183061</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="A277" s="2">
         <v>44896</v>
       </c>
-      <c r="B277">
-        <v>5359335</v>
+      <c r="B277" s="3">
+        <v>5456045</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="A278" s="2">
         <v>44927</v>
       </c>
-      <c r="B278">
-        <v>4947266</v>
+      <c r="B278" s="3">
+        <v>5058367</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="A279" s="2">
         <v>44958</v>
       </c>
-      <c r="B279">
-        <v>4417727</v>
+      <c r="B279" s="3">
+        <v>4515723</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="A280" s="2">
         <v>44986</v>
       </c>
-      <c r="B280">
-        <v>5180113</v>
+      <c r="B280" s="3">
+        <v>5287795</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+      <c r="A281" s="2">
         <v>45017</v>
       </c>
-      <c r="B281">
-        <v>5324221</v>
+      <c r="B281" s="3">
+        <v>5428411</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+      <c r="A282" s="2">
         <v>45047</v>
       </c>
-      <c r="B282">
-        <v>5245493</v>
+      <c r="B282" s="3">
+        <v>5351191</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+      <c r="A283" s="2">
         <v>45078</v>
       </c>
-      <c r="B283">
-        <v>5206599</v>
+      <c r="B283" s="3">
+        <v>5316081</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+      <c r="A284" s="2">
         <v>45108</v>
       </c>
-      <c r="B284">
-        <v>5931271</v>
+      <c r="B284" s="3">
+        <v>6058747</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+      <c r="A285" s="2">
         <v>45139</v>
       </c>
-      <c r="B285">
-        <v>5957266</v>
+      <c r="B285" s="3">
+        <v>6071675</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+      <c r="A286" s="2">
         <v>45170</v>
       </c>
-      <c r="B286">
-        <v>5046561</v>
+      <c r="B286" s="3">
+        <v>5143082</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="A287" s="2">
         <v>45200</v>
       </c>
-      <c r="B287">
-        <v>5397795</v>
+      <c r="B287" s="3">
+        <v>5485221</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+      <c r="A288" s="2">
         <v>45231</v>
       </c>
-      <c r="B288">
-        <v>5250222</v>
+      <c r="B288" s="3">
+        <v>5327031</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+      <c r="A289" s="2">
         <v>45261</v>
       </c>
-      <c r="B289">
-        <v>5379789</v>
+      <c r="B289" s="3">
+        <v>5472429</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+      <c r="A290" s="2">
         <v>45292</v>
       </c>
-      <c r="B290">
-        <v>4640553</v>
+      <c r="B290" s="3">
+        <v>4750992</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+      <c r="A291" s="2">
         <v>45323</v>
       </c>
-      <c r="B291">
-        <v>4229370</v>
+      <c r="B291" s="3">
+        <v>4322342</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+      <c r="A292" s="2">
         <v>45352</v>
       </c>
-      <c r="B292">
-        <v>4691197</v>
+      <c r="B292" s="3">
+        <v>4790485</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+      <c r="A293" s="2">
         <v>45383</v>
       </c>
-      <c r="B293">
-        <v>4819596</v>
+      <c r="B293" s="3">
+        <v>4923234</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+      <c r="A294" s="2">
         <v>45413</v>
       </c>
-      <c r="B294">
-        <v>5066232</v>
+      <c r="B294" s="3">
+        <v>5166797</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+      <c r="A295" s="2">
         <v>45444</v>
       </c>
-      <c r="B295">
-        <v>4955045</v>
+      <c r="B295" s="3">
+        <v>5056718</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+      <c r="A296" s="2">
         <v>45474</v>
       </c>
+      <c r="B296" s="3">
+        <v>5555790</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+      <c r="A297" s="2">
         <v>45505</v>
       </c>
+      <c r="B297" s="3">
+        <v>5453910</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="A298" s="2">
         <v>45536</v>
       </c>
+      <c r="B298" s="3">
+        <v>4806392</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+      <c r="A299" s="2">
         <v>45566</v>
       </c>
+      <c r="B299" s="3">
+        <v>5062115</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+      <c r="A300" s="2">
         <v>45597</v>
       </c>
+      <c r="B300" s="3">
+        <v>5110702</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+      <c r="A301" s="2">
         <v>45627</v>
       </c>
+      <c r="B301" s="3">
+        <v>5328304</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+      <c r="A302" s="2">
         <v>45658</v>
       </c>
+      <c r="B302" s="3">
+        <v>4945636</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+      <c r="A303" s="2">
         <v>45689</v>
       </c>
+      <c r="B303" s="3">
+        <v>4370469</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+      <c r="A304" s="2">
         <v>45717</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+      <c r="B304" s="3">
+        <v>5099762</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
         <v>45748</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+      <c r="B305" s="3">
+        <v>5311786</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
         <v>45778</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+      <c r="B306" s="3">
+        <v>5212654</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
         <v>45809</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" s="3">
+        <v>5025360</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45839</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45870</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45931</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45962</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45992</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>46023</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>46054</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>46113</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>46143</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>46174</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>46508</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>46539</v>
       </c>
     </row>
   </sheetData>
